--- a/datasets/acme_spd/questions/ACME_SPD_Questions.xlsx
+++ b/datasets/acme_spd/questions/ACME_SPD_Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RAG_Tester\acme_spd\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shthanka.ORADEV\Oracle Content\Gen AI\rag_tester_llidx\datasets\acme_spd\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45736A04-6AF3-4F96-BABB-265B5FB4F188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83AA3FF-FED8-4C48-875E-69713768BB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21948" windowHeight="11232" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23910" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="292">
   <si>
     <t>assessment</t>
   </si>
@@ -926,9 +926,6 @@
   </si>
   <si>
     <t>The document does not provide specific details regarding coverage for laser eye surgery by the Vision Service Plan</t>
-  </si>
-  <si>
-    <t>average_score</t>
   </si>
   <si>
     <t>my wife also works at ACME. Can we add each other as beneficiaries to our Life insurance plans</t>
@@ -1942,35 +1939,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -1980,11 +1973,8 @@
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -1994,11 +1984,8 @@
       <c r="C3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -2008,11 +1995,8 @@
       <c r="C4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -2022,11 +2006,8 @@
       <c r="C5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -2036,11 +2017,8 @@
       <c r="C6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -2050,11 +2028,8 @@
       <c r="C7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -2064,11 +2039,8 @@
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -2078,11 +2050,8 @@
       <c r="C9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -2092,11 +2061,8 @@
       <c r="C10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -2106,25 +2072,19 @@
       <c r="C11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -2134,11 +2094,8 @@
       <c r="C13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
@@ -2148,11 +2105,8 @@
       <c r="C14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
@@ -2162,11 +2116,8 @@
       <c r="C15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -2176,11 +2127,8 @@
       <c r="C16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -2190,11 +2138,8 @@
       <c r="C17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -2204,11 +2149,8 @@
       <c r="C18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -2218,11 +2160,8 @@
       <c r="C19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>147</v>
       </c>
@@ -2232,11 +2171,8 @@
       <c r="C20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -2246,11 +2182,8 @@
       <c r="C21" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -2260,11 +2193,8 @@
       <c r="C22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -2274,11 +2204,8 @@
       <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>151</v>
       </c>
@@ -2288,11 +2215,8 @@
       <c r="C24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>152</v>
       </c>
@@ -2302,11 +2226,8 @@
       <c r="C25" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -2316,11 +2237,8 @@
       <c r="C26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>154</v>
       </c>
@@ -2330,11 +2248,8 @@
       <c r="C27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
@@ -2344,11 +2259,8 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
@@ -2358,11 +2270,8 @@
       <c r="C29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>157</v>
       </c>
@@ -2372,11 +2281,8 @@
       <c r="C30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
@@ -2386,11 +2292,8 @@
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -2400,11 +2303,8 @@
       <c r="C32" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -2414,11 +2314,8 @@
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -2428,11 +2325,8 @@
       <c r="C34" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>162</v>
       </c>
@@ -2442,11 +2336,8 @@
       <c r="C35" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>163</v>
       </c>
@@ -2456,11 +2347,8 @@
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>164</v>
       </c>
@@ -2470,11 +2358,8 @@
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -2484,11 +2369,8 @@
       <c r="C38" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -2498,11 +2380,8 @@
       <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>167</v>
       </c>
@@ -2512,11 +2391,8 @@
       <c r="C40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>168</v>
       </c>
@@ -2526,11 +2402,8 @@
       <c r="C41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -2540,11 +2413,8 @@
       <c r="C42" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D42" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" ht="390" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -2554,11 +2424,8 @@
       <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -2568,11 +2435,8 @@
       <c r="C44" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2582,11 +2446,8 @@
       <c r="C45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>173</v>
       </c>
@@ -2596,11 +2457,8 @@
       <c r="C46" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>174</v>
       </c>
@@ -2610,11 +2468,8 @@
       <c r="C47" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -2624,11 +2479,8 @@
       <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
@@ -2638,11 +2490,8 @@
       <c r="C49" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -2652,11 +2501,8 @@
       <c r="C50" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" ht="390" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -2666,11 +2512,8 @@
       <c r="C51" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
@@ -2680,11 +2523,8 @@
       <c r="C52" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>180</v>
       </c>
@@ -2694,11 +2534,8 @@
       <c r="C53" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -2708,11 +2545,8 @@
       <c r="C54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D54" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>182</v>
       </c>
@@ -2722,11 +2556,8 @@
       <c r="C55" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>183</v>
       </c>
@@ -2736,11 +2567,8 @@
       <c r="C56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
@@ -2750,11 +2578,8 @@
       <c r="C57" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
@@ -2764,11 +2589,8 @@
       <c r="C58" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>186</v>
       </c>
@@ -2778,11 +2600,8 @@
       <c r="C59" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>187</v>
       </c>
@@ -2792,11 +2611,8 @@
       <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -2806,11 +2622,8 @@
       <c r="C61" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>189</v>
       </c>
@@ -2820,11 +2633,8 @@
       <c r="C62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2834,11 +2644,8 @@
       <c r="C63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -2848,11 +2655,8 @@
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -2862,11 +2666,8 @@
       <c r="C65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -2876,11 +2677,8 @@
       <c r="C66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -2890,11 +2688,8 @@
       <c r="C67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>195</v>
       </c>
@@ -2904,11 +2699,8 @@
       <c r="C68" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>196</v>
       </c>
@@ -2918,11 +2710,8 @@
       <c r="C69" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -2932,11 +2721,8 @@
       <c r="C70" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D70" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -2946,11 +2732,8 @@
       <c r="C71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
@@ -2960,11 +2743,8 @@
       <c r="C72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" ht="390" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -2974,11 +2754,8 @@
       <c r="C73" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -2988,11 +2765,8 @@
       <c r="C74" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>202</v>
       </c>
@@ -3002,11 +2776,8 @@
       <c r="C75" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D75" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
@@ -3016,11 +2787,8 @@
       <c r="C76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
@@ -3030,11 +2798,8 @@
       <c r="C77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>205</v>
       </c>
@@ -3044,11 +2809,8 @@
       <c r="C78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>206</v>
       </c>
@@ -3058,11 +2820,8 @@
       <c r="C79" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -3072,11 +2831,8 @@
       <c r="C80" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -3086,11 +2842,8 @@
       <c r="C81" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D81" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>209</v>
       </c>
@@ -3100,11 +2853,8 @@
       <c r="C82" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D82" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>210</v>
       </c>
@@ -3113,9 +2863,6 @@
       </c>
       <c r="C83" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3134,21 +2881,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -3156,7 +2903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -3164,7 +2911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -3172,7 +2919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -3180,7 +2927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -3188,7 +2935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3196,7 +2943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -3204,7 +2951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -3212,7 +2959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -3220,7 +2967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -3228,7 +2975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -3236,7 +2983,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3244,7 +2991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
@@ -3252,7 +2999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
@@ -3260,7 +3007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -3268,7 +3015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -3276,7 +3023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -3284,7 +3031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -3292,7 +3039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>147</v>
       </c>
@@ -3300,7 +3047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -3308,7 +3055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -3316,7 +3063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -3324,7 +3071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>151</v>
       </c>
@@ -3332,7 +3079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>152</v>
       </c>
@@ -3340,7 +3087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -3348,7 +3095,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>154</v>
       </c>
@@ -3356,7 +3103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
@@ -3364,7 +3111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
@@ -3372,7 +3119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>157</v>
       </c>
@@ -3380,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
@@ -3388,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -3396,7 +3143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -3404,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -3412,7 +3159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>162</v>
       </c>
@@ -3420,7 +3167,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>163</v>
       </c>
@@ -3428,7 +3175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>164</v>
       </c>
@@ -3436,7 +3183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -3444,7 +3191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -3452,7 +3199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>167</v>
       </c>
@@ -3460,7 +3207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>168</v>
       </c>
@@ -3468,7 +3215,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -3476,7 +3223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -3484,7 +3231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -3492,7 +3239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -3500,7 +3247,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>173</v>
       </c>
@@ -3508,7 +3255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>174</v>
       </c>
@@ -3516,7 +3263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3524,7 +3271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
@@ -3532,7 +3279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -3540,7 +3287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -3548,7 +3295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
@@ -3556,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>180</v>
       </c>
@@ -3564,7 +3311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -3572,7 +3319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>182</v>
       </c>
@@ -3580,7 +3327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>183</v>
       </c>
@@ -3588,7 +3335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
@@ -3596,7 +3343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
@@ -3604,7 +3351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>186</v>
       </c>
@@ -3612,7 +3359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>187</v>
       </c>
@@ -3620,7 +3367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -3628,7 +3375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>189</v>
       </c>
@@ -3636,7 +3383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3644,7 +3391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -3652,7 +3399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3660,7 +3407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -3668,7 +3415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -3676,7 +3423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>195</v>
       </c>
@@ -3684,7 +3431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>196</v>
       </c>
@@ -3692,7 +3439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -3700,7 +3447,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -3708,7 +3455,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
@@ -3716,7 +3463,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -3724,7 +3471,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -3732,7 +3479,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>202</v>
       </c>
@@ -3740,7 +3487,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
@@ -3748,7 +3495,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
@@ -3756,7 +3503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>205</v>
       </c>
@@ -3764,7 +3511,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>206</v>
       </c>
@@ -3772,7 +3519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -3780,7 +3527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -3788,7 +3535,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>209</v>
       </c>
@@ -3796,7 +3543,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>210</v>
       </c>
@@ -3816,27 +3563,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>119</v>
@@ -3848,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -3865,7 +3612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -3879,10 +3626,10 @@
         <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -3896,10 +3643,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -3916,7 +3663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -3933,7 +3680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3950,7 +3697,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -3967,7 +3714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -3984,7 +3731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -3998,10 +3745,10 @@
         <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -4018,12 +3765,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>218</v>
@@ -4032,10 +3779,10 @@
         <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4052,7 +3799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>141</v>
       </c>
@@ -4069,7 +3816,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
@@ -4086,7 +3833,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>143</v>
       </c>
@@ -4103,7 +3850,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -4120,7 +3867,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -4134,10 +3881,10 @@
         <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -4154,7 +3901,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>147</v>
       </c>
@@ -4171,7 +3918,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -4188,7 +3935,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -4205,7 +3952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -4222,7 +3969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>151</v>
       </c>
@@ -4239,7 +3986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>152</v>
       </c>
@@ -4256,7 +4003,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -4270,10 +4017,10 @@
         <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>154</v>
       </c>
@@ -4287,10 +4034,10 @@
         <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>155</v>
       </c>
@@ -4304,10 +4051,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>156</v>
       </c>
@@ -4324,7 +4071,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>157</v>
       </c>
@@ -4338,10 +4085,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>158</v>
       </c>
@@ -4355,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>159</v>
       </c>
@@ -4372,10 +4119,10 @@
         <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>160</v>
       </c>
@@ -4389,10 +4136,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -4409,7 +4156,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>162</v>
       </c>
@@ -4423,10 +4170,10 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>163</v>
       </c>
@@ -4440,10 +4187,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>164</v>
       </c>
@@ -4460,7 +4207,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -4477,7 +4224,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -4494,7 +4241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>167</v>
       </c>
@@ -4511,7 +4258,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>168</v>
       </c>
@@ -4525,10 +4272,10 @@
         <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -4545,7 +4292,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -4562,7 +4309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -4579,7 +4326,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -4593,10 +4340,10 @@
         <v>107</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>173</v>
       </c>
@@ -4613,7 +4360,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>174</v>
       </c>
@@ -4630,7 +4377,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -4647,7 +4394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
@@ -4664,7 +4411,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -4678,10 +4425,10 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>178</v>
       </c>
@@ -4698,7 +4445,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>179</v>
       </c>
@@ -4712,10 +4459,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>180</v>
       </c>
@@ -4729,10 +4476,10 @@
         <v>117</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -4749,7 +4496,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>182</v>
       </c>
@@ -4766,7 +4513,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>183</v>
       </c>
@@ -4780,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
@@ -4800,7 +4547,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
@@ -4817,7 +4564,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>186</v>
       </c>
@@ -4834,7 +4581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>187</v>
       </c>
@@ -4848,10 +4595,10 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -4865,10 +4612,10 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>189</v>
       </c>
@@ -4882,10 +4629,10 @@
         <v>107</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4899,10 +4646,10 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -4916,10 +4663,10 @@
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -4933,10 +4680,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
@@ -4953,7 +4700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -4967,10 +4714,10 @@
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>195</v>
       </c>
@@ -4984,10 +4731,10 @@
         <v>107</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>196</v>
       </c>
@@ -5004,7 +4751,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -5021,7 +4768,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -5038,7 +4785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
@@ -5052,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -5072,7 +4819,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -5089,7 +4836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>202</v>
       </c>
@@ -5106,7 +4853,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
@@ -5123,7 +4870,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
@@ -5137,10 +4884,10 @@
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>205</v>
       </c>
@@ -5157,7 +4904,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>206</v>
       </c>
@@ -5171,10 +4918,10 @@
         <v>32</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
@@ -5191,7 +4938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -5208,7 +4955,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>209</v>
       </c>
@@ -5225,7 +4972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>210</v>
       </c>
